--- a/data/trans_dic/P2A_lim_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P2A_lim_R-Estudios-trans_dic.xlsx
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,08%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,11%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,98%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,39%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,14%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,84%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,42%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,8%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,68%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,96%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,51%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,23%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>9,32; 13,18</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>13,69; 18,75</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>8,91; 13,35</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>22,38; 29,17</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>10,42; 14,01</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>13,94; 18,05</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>13,11; 18,08</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>24,47; 29,29</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>10,54; 13,19</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,09</t>
+          <t>14,28; 17,56</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>11,76; 15,35</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,09</t>
+          <t>24,25; 28,16</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,9%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,33%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,34%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,32%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,17%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,39%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,27%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,11%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,2%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,36%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,09%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>4,0; 6,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>6,23; 8,63</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>5,28; 7,58</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>7,93; 12,83</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>4,25; 6,69</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>7,89; 10,73</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>5,32; 7,6</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>10,75; 45,62</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>4,36; 5,92</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>7,35; 9,2</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,05</t>
+          <t>5,51; 7,13</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>10,56; 28,69</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,68%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,12%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,1%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,08%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,71%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,74%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,85%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,75%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,62%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,4%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,48%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,41%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>2,22; 5,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>3,19; 7,61</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>2,52; 6,02</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>6,84; 11,93</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>3,85; 8,45</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,46</t>
+          <t>5,47; 10,97</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>3,17; 6,73</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>6,12; 9,67</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>3,42; 6,3</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>4,85; 8,31</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>3,33; 6,0</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>7,03; 10,02</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,64%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,52%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,01%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,79%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,03%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,5%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,7%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,75%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,35%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,53%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,87%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,85%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>5,83; 7,57</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>8,59; 10,59</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>6,21; 8,05</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>9,76; 14,33</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>7,13; 9,04</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>10,36; 12,57</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>7,73; 9,69</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>13,49; 37,45</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>6,72; 7,98</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>9,71; 11,24</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>7,24; 8,59</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>12,97; 25,47</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P2A_lim_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P2A_lim_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,27 +657,27 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>11,08%</t>
+          <t>11,12%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>16,11%</t>
+          <t>16,13%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>10,98%</t>
+          <t>10,99%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>25,39%</t>
+          <t>25,46%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>12,14%</t>
+          <t>12,15%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -686,7 +687,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>15,42%</t>
+          <t>15,47%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -696,7 +697,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>11,68%</t>
+          <t>11,7%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -706,12 +707,12 @@
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>13,51%</t>
+          <t>13,54%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>26,23%</t>
+          <t>26,26%</t>
         </is>
       </c>
     </row>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>9,32; 13,18</t>
+          <t>9,27; 13,08</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>13,69; 18,75</t>
+          <t>13,8; 18,83</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,91; 13,35</t>
+          <t>8,58; 13,25</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>22,38; 29,17</t>
+          <t>22,21; 29,25</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>10,42; 14,01</t>
+          <t>10,33; 13,89</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>13,94; 18,05</t>
+          <t>13,85; 18,06</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>13,11; 18,08</t>
+          <t>13,24; 18,12</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>24,47; 29,29</t>
+          <t>24,44; 29,03</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>10,54; 13,19</t>
+          <t>10,35; 12,97</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>14,28; 17,56</t>
+          <t>14,35; 17,59</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>11,76; 15,35</t>
+          <t>11,89; 15,24</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>24,25; 28,16</t>
+          <t>24,12; 28,18</t>
         </is>
       </c>
     </row>
@@ -796,62 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,9%</t>
+          <t>4,91%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>7,33%</t>
+          <t>7,34%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>6,34%</t>
+          <t>6,37%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>11,0%</t>
+          <t>11,07%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>5,32%</t>
+          <t>5,34%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>9,17%</t>
+          <t>9,18%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>6,4%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>19,37%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>5,12%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>8,21%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
           <t>6,39%</t>
         </is>
       </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>19,27%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>5,11%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>8,2%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>6,36%</t>
-        </is>
-      </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>15,09%</t>
+          <t>15,18%</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,0; 6,0</t>
+          <t>3,87; 5,96</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,23; 8,63</t>
+          <t>6,27; 8,68</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,28; 7,58</t>
+          <t>5,21; 7,53</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,93; 12,83</t>
+          <t>7,81; 13,14</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,25; 6,69</t>
+          <t>4,36; 6,54</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,89; 10,73</t>
+          <t>7,75; 10,61</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,32; 7,6</t>
+          <t>5,3; 7,58</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>10,75; 45,62</t>
+          <t>10,69; 42,48</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,36; 5,92</t>
+          <t>4,32; 5,88</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>7,35; 9,2</t>
+          <t>7,36; 9,31</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>5,51; 7,13</t>
+          <t>5,59; 7,22</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>10,56; 28,69</t>
+          <t>10,59; 29,45</t>
         </is>
       </c>
     </row>
@@ -936,7 +937,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,68%</t>
+          <t>3,69%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -946,12 +947,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,1%</t>
+          <t>4,13%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>9,08%</t>
+          <t>9,18%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -966,17 +967,17 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>4,85%</t>
+          <t>4,86%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>7,75%</t>
+          <t>7,82%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>4,62%</t>
+          <t>4,63%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -986,12 +987,12 @@
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>4,48%</t>
+          <t>4,5%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>8,41%</t>
+          <t>8,49%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,22; 5,83</t>
+          <t>2,17; 5,88</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,19; 7,61</t>
+          <t>3,2; 7,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,52; 6,02</t>
+          <t>2,58; 6,24</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,84; 11,93</t>
+          <t>6,94; 12,38</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,85; 8,45</t>
+          <t>3,79; 8,32</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,47; 10,97</t>
+          <t>5,72; 11,4</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,17; 6,73</t>
+          <t>3,24; 6,79</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,12; 9,67</t>
+          <t>6,28; 9,94</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,42; 6,3</t>
+          <t>3,37; 6,1</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>4,85; 8,31</t>
+          <t>4,81; 8,44</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,33; 6,0</t>
+          <t>3,37; 5,94</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>7,03; 10,02</t>
+          <t>7,11; 10,19</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,64%</t>
+          <t>6,66%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>9,52%</t>
+          <t>9,53%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7,01%</t>
+          <t>7,05%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>12,79%</t>
+          <t>12,87%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>8,03%</t>
+          <t>8,04%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>11,5%</t>
+          <t>11,51%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>8,7%</t>
+          <t>8,71%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>18,75%</t>
+          <t>18,83%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>7,35%</t>
+          <t>7,36%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>10,53%</t>
+          <t>10,54%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>7,87%</t>
+          <t>7,9%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>15,85%</t>
+          <t>15,94%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,83; 7,57</t>
+          <t>5,81; 7,58</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,59; 10,59</t>
+          <t>8,52; 10,72</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,21; 8,05</t>
+          <t>6,23; 8,02</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,76; 14,33</t>
+          <t>9,96; 14,45</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,13; 9,04</t>
+          <t>7,16; 9,11</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>10,36; 12,57</t>
+          <t>10,4; 12,61</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>7,73; 9,69</t>
+          <t>7,83; 9,8</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>13,49; 37,45</t>
+          <t>13,55; 31,22</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6,72; 7,98</t>
+          <t>6,76; 8,02</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>9,71; 11,24</t>
+          <t>9,79; 11,22</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>7,24; 8,59</t>
+          <t>7,25; 8,6</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>12,97; 25,47</t>
+          <t>13,0; 23,55</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares con personas con alguna limitación</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>397</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>579</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>114346</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>157042</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>82814</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>130760</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>159671</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>211964</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>153402</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>202486</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>274017</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>369006</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>236216</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>333246</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>95331; 134502</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>134393; 183368</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>64612; 99772</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>114063; 150192</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>135666; 182490</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>185251; 241580</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>131310; 179619</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>184652; 219355</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>242482; 303709</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>331760; 406573</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>207501; 265978</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>306138; 357663</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>362</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>237</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>631</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>83028</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>143911</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>131631</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>252047</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>84540</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>161247</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>127079</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>431321</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>167569</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>305158</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>258710</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>683368</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>65321; 100633</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>123091; 170195</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>107620; 155465</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>177838; 299158</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>69095; 103669</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>136142; 186236</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>105212; 150536</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>238073; 945946</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>141495; 192394</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>273660; 346197</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>226586; 292438</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>476951; 1326315</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>20284</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>24642</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>22410</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>58696</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>27219</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>35512</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>26652</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>51178</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>47503</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>60155</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>49062</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>109874</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>11911; 32280</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>15381; 36727</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>13975; 33849</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>44386; 79179</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>18044; 39646</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>26223; 52293</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>17767; 37216</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>41103; 65060</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>34542; 62554</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>45240; 79365</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>36735; 64765</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>91973; 131844</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>293</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>511</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>372</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>276</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>841</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>473</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>665</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>498</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>1352</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>217659</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>325595</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>236855</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>441503</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>271430</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>408723</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>307133</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>684985</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>489089</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>734318</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>543987</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>1126488</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>189845; 247810</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>291233; 366162</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>209437; 269643</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>341532; 495614</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>241531; 307359</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>369456; 447942</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>275902; 345574</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>492729; 1135461</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>448730; 532442</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>682573; 782000</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>499506; 592157</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>918937; 1664310</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>